--- a/Project/DataTable/Excel/背景音乐配置表.xlsx
+++ b/Project/DataTable/Excel/背景音乐配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="10770"/>
+    <workbookView windowWidth="28710" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="背景音乐配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Id</t>
   </si>
@@ -79,13 +79,22 @@
     <t>登陆场景背景音乐</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>创建角色场景音乐</t>
+  </si>
+  <si>
     <t>MainCity</t>
   </si>
   <si>
-    <t>创建角色场景音乐</t>
-  </si>
-  <si>
     <t>主城场景背景音乐</t>
+  </si>
+  <si>
+    <t>关卡背景音乐</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -93,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -173,16 +182,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -501,11 +510,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -529,13 +538,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -669,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>64</v>
@@ -689,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="5">
         <v>64</v>
@@ -704,6 +713,29 @@
         <v>1</v>
       </c>
       <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Project/DataTable/Excel/背景音乐配置表.xlsx
+++ b/Project/DataTable/Excel/背景音乐配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13020"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="背景音乐配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>登陆场景背景音乐</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>Level</t>
   </si>
   <si>
     <t>创建角色场景音乐</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>关卡背景音乐</t>
-  </si>
-  <si>
-    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -541,7 +538,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -724,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>64</v>
